--- a/DateBase/orders/Dang Nguyen_2025-9-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-9-17.xlsx
@@ -711,6 +711,9 @@
       <c r="C34" t="str">
         <v>816_山里红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -772,7 +775,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030536691013513589155500201010201556101042015750</v>
+        <v>030536691013513589155500201010201556101042015755</v>
       </c>
     </row>
   </sheetData>
